--- a/assets/backdata/FCT_ETH  comminted.xlsx
+++ b/assets/backdata/FCT_ETH  comminted.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shunichinakada/Documents/nuxt/recepi-calk03/assets/backdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snakada/Documents/WebApp/recepicalk_03/assets/backdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52E60502-0484-8D4F-85E3-ECD006EFCB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4BA2FC0-739B-9D49-A355-9C52214D806B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940"/>
+    <workbookView xWindow="5040" yWindow="1860" windowWidth="28300" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="FCT_ETH  comminted" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FCT_ETH  comminted'!$A$1:$AJ$114</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -214,9 +224,6 @@
     <t>Vegetables and their products</t>
   </si>
   <si>
-    <t xml:space="preserve">Vegetable and fruits </t>
-  </si>
-  <si>
     <t>Okra leaves</t>
   </si>
   <si>
@@ -427,9 +434,6 @@
     <t xml:space="preserve">Butter, from cow-s milk </t>
   </si>
   <si>
-    <t xml:space="preserve">Fats and oil  </t>
-  </si>
-  <si>
     <t>Coconut oil</t>
   </si>
   <si>
@@ -526,13 +530,22 @@
     <t>https://www.researchgate.net/publication/304773099_Nutraceutical_Value_of_Finger_Millet_Eleusine_coracana_L_Gaertn_and_Their_Improvement_Using_Omics_Approaches</t>
   </si>
   <si>
+    <t>Dagusa-Eleusine coracana</t>
+  </si>
+  <si>
     <t>Hulbat/Abish- Fanugreek</t>
   </si>
   <si>
     <t>https://fdc.nal.usda.gov/fdc-app.html#/food-details/171324/nutrients</t>
   </si>
   <si>
-    <t>Dagusa-Eleusine coracana</t>
+    <t xml:space="preserve">Diatery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">camel milk </t>
+  </si>
+  <si>
+    <t>https://www.livescience.com/53579-camel-milk.html</t>
   </si>
   <si>
     <t xml:space="preserve">Pasta </t>
@@ -541,15 +554,6 @@
     <t>https://www.puregym.com/blog/pasta-vs-rice-which-has-more-nutritional-value/#:~:text=At%20117%20calories%20per%20100g,lose%20or%20maintain%20their%20weight.</t>
   </si>
   <si>
-    <t xml:space="preserve">Diatery </t>
-  </si>
-  <si>
-    <t xml:space="preserve">camel milk </t>
-  </si>
-  <si>
-    <t>https://www.livescience.com/53579-camel-milk.html</t>
-  </si>
-  <si>
     <t xml:space="preserve">Flesh food </t>
   </si>
   <si>
@@ -559,21 +563,18 @@
     <t>Fats and oil</t>
   </si>
   <si>
-    <t xml:space="preserve">Fats and oil </t>
-  </si>
-  <si>
     <t xml:space="preserve"> sun flower seeds oil </t>
   </si>
   <si>
+    <t>Anchote</t>
+  </si>
+  <si>
+    <t>https://www.academia.edu/67197731/Biochemical_and_Mineral_Composition_of_Anchote_Coccinia_abyssinica_Lam_Cogn_Accessions_from_Ethiopia</t>
+  </si>
+  <si>
     <t>Lamb meat(Motten raw)</t>
   </si>
   <si>
-    <t>Anchote</t>
-  </si>
-  <si>
-    <t>https://www.academia.edu/67197731/Biochemical_and_Mineral_Composition_of_Anchote_Coccinia_abyssinica_Lam_Cogn_Accessions_from_Ethiopia</t>
-  </si>
-  <si>
     <t xml:space="preserve">fruits and vegetable </t>
   </si>
   <si>
@@ -581,6 +582,17 @@
   </si>
   <si>
     <t>https://www.innit.com/nutrition/usda-watermelon/p/000S0932609000</t>
+  </si>
+  <si>
+    <t>Vegetable and fruits</t>
+  </si>
+  <si>
+    <t>Legumes</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Cereal, grains, white roots and tubers</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -1535,10 +1547,42 @@
   <dimension ref="A1:AJ114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="232.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:36">
       <c r="A1" t="s">
@@ -2734,7 +2778,7 @@
         <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
@@ -2838,7 +2882,7 @@
         <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="G13" t="s">
         <v>51</v>
@@ -3052,7 +3096,7 @@
         <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="G15" t="s">
         <v>57</v>
@@ -3578,10 +3622,10 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" t="s">
         <v>63</v>
-      </c>
-      <c r="G20" t="s">
-        <v>64</v>
       </c>
       <c r="I20">
         <v>0.8</v>
@@ -3682,13 +3726,13 @@
         <v>62</v>
       </c>
       <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" t="s">
         <v>65</v>
-      </c>
-      <c r="F21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" t="s">
-        <v>66</v>
       </c>
       <c r="I21">
         <v>0.8</v>
@@ -3792,10 +3836,10 @@
         <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22">
         <v>0.89</v>
@@ -3899,10 +3943,10 @@
         <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I23">
         <v>0.89</v>
@@ -4006,10 +4050,10 @@
         <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I24">
         <v>0.85</v>
@@ -4113,10 +4157,10 @@
         <v>52</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I25">
         <v>0.85</v>
@@ -4220,10 +4264,10 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I26">
         <v>0.8</v>
@@ -4324,13 +4368,13 @@
         <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I27">
         <v>0.81</v>
@@ -4434,10 +4478,10 @@
         <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I28">
         <v>0.8</v>
@@ -4538,13 +4582,13 @@
         <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I29">
         <v>0.87</v>
@@ -4645,13 +4689,13 @@
         <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I30">
         <v>0.86</v>
@@ -4752,13 +4796,13 @@
         <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I31">
         <v>0.86</v>
@@ -4859,13 +4903,13 @@
         <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I32">
         <v>0.91</v>
@@ -4969,10 +5013,10 @@
         <v>52</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I33">
         <v>0.6</v>
@@ -5073,13 +5117,13 @@
         <v>62</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I34">
         <v>0.91</v>
@@ -5183,10 +5227,10 @@
         <v>52</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I35">
         <v>0.94</v>
@@ -5290,10 +5334,10 @@
         <v>52</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -5394,13 +5438,13 @@
         <v>62</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F37" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I37">
         <v>0.81</v>
@@ -5504,10 +5548,10 @@
         <v>52</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I38">
         <v>0.7</v>
@@ -5611,10 +5655,10 @@
         <v>52</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I39">
         <v>0.95</v>
@@ -5715,13 +5759,13 @@
         <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I40">
         <v>0.73</v>
@@ -5825,10 +5869,10 @@
         <v>52</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I41">
         <v>0.83</v>
@@ -5929,13 +5973,13 @@
         <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>0.83</v>
@@ -6039,10 +6083,10 @@
         <v>52</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I43">
         <v>0.7</v>
@@ -6146,10 +6190,10 @@
         <v>52</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -6253,10 +6297,10 @@
         <v>52</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I45">
         <v>0.72</v>
@@ -6360,10 +6404,10 @@
         <v>52</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I46">
         <v>0.8</v>
@@ -6467,10 +6511,10 @@
         <v>52</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I47">
         <v>0.8</v>
@@ -6568,16 +6612,16 @@
         <v>222</v>
       </c>
       <c r="D48" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" t="s">
+        <v>183</v>
+      </c>
+      <c r="G48" t="s">
         <v>89</v>
-      </c>
-      <c r="E48" t="s">
-        <v>65</v>
-      </c>
-      <c r="F48" t="s">
-        <v>63</v>
-      </c>
-      <c r="G48" t="s">
-        <v>90</v>
       </c>
       <c r="I48">
         <v>0.74</v>
@@ -6675,16 +6719,16 @@
         <v>229</v>
       </c>
       <c r="D49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I49">
         <v>0.78</v>
@@ -6782,16 +6826,16 @@
         <v>233</v>
       </c>
       <c r="D50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50">
         <v>0.64</v>
@@ -6889,16 +6933,16 @@
         <v>234</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E51" t="s">
         <v>52</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I51">
         <v>0.71</v>
@@ -6996,16 +7040,16 @@
         <v>236</v>
       </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E52" t="s">
         <v>52</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I52">
         <v>0.62</v>
@@ -7103,16 +7147,16 @@
         <v>237</v>
       </c>
       <c r="D53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I53">
         <v>0.51</v>
@@ -7210,16 +7254,16 @@
         <v>245</v>
       </c>
       <c r="D54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I54">
         <v>0.9</v>
@@ -7317,16 +7361,16 @@
         <v>247</v>
       </c>
       <c r="D55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E55" t="s">
         <v>52</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I55">
         <v>0.64</v>
@@ -7424,16 +7468,16 @@
         <v>247</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E56" t="s">
         <v>52</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I56">
         <v>0.64</v>
@@ -7531,16 +7575,16 @@
         <v>258</v>
       </c>
       <c r="D57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E57" t="s">
         <v>52</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I57">
         <v>0.51</v>
@@ -7638,16 +7682,16 @@
         <v>261</v>
       </c>
       <c r="D58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I58">
         <v>0.65</v>
@@ -7745,7 +7789,7 @@
         <v>266</v>
       </c>
       <c r="D59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E59" t="s">
         <v>55</v>
@@ -7754,7 +7798,7 @@
         <v>56</v>
       </c>
       <c r="G59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I59">
         <v>0.7</v>
@@ -7852,16 +7896,16 @@
         <v>272</v>
       </c>
       <c r="D60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E60" t="s">
         <v>55</v>
       </c>
       <c r="F60" t="s">
+        <v>101</v>
+      </c>
+      <c r="G60" t="s">
         <v>102</v>
-      </c>
-      <c r="G60" t="s">
-        <v>103</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -7959,16 +8003,16 @@
         <v>286</v>
       </c>
       <c r="D61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E61" t="s">
         <v>55</v>
       </c>
       <c r="F61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -8066,16 +8110,16 @@
         <v>287</v>
       </c>
       <c r="D62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E62" t="s">
         <v>55</v>
       </c>
       <c r="F62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -8173,16 +8217,16 @@
         <v>292</v>
       </c>
       <c r="D63" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" t="s">
         <v>106</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>107</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>108</v>
-      </c>
-      <c r="G63" t="s">
-        <v>109</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -8280,16 +8324,16 @@
         <v>293</v>
       </c>
       <c r="D64" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" t="s">
         <v>106</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>107</v>
       </c>
-      <c r="F64" t="s">
-        <v>108</v>
-      </c>
       <c r="G64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I64">
         <v>0.44</v>
@@ -8387,16 +8431,16 @@
         <v>295</v>
       </c>
       <c r="D65" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" t="s">
         <v>106</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>107</v>
       </c>
-      <c r="F65" t="s">
-        <v>108</v>
-      </c>
       <c r="G65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -8494,16 +8538,16 @@
         <v>326</v>
       </c>
       <c r="D66" t="s">
+        <v>105</v>
+      </c>
+      <c r="E66" t="s">
         <v>106</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>107</v>
       </c>
-      <c r="F66" t="s">
-        <v>108</v>
-      </c>
       <c r="G66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I66">
         <v>0.72</v>
@@ -8601,16 +8645,16 @@
         <v>336</v>
       </c>
       <c r="D67" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" t="s">
         <v>106</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>107</v>
       </c>
-      <c r="F67" t="s">
-        <v>108</v>
-      </c>
       <c r="G67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I67">
         <v>0.74</v>
@@ -8705,16 +8749,16 @@
         <v>354</v>
       </c>
       <c r="D68" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" t="s">
         <v>114</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
+        <v>107</v>
+      </c>
+      <c r="G68" t="s">
         <v>115</v>
-      </c>
-      <c r="F68" t="s">
-        <v>108</v>
-      </c>
-      <c r="G68" t="s">
-        <v>116</v>
       </c>
       <c r="I68">
         <v>0.88</v>
@@ -8812,16 +8856,16 @@
         <v>375</v>
       </c>
       <c r="D69" t="s">
+        <v>116</v>
+      </c>
+      <c r="E69" t="s">
+        <v>106</v>
+      </c>
+      <c r="F69" t="s">
+        <v>107</v>
+      </c>
+      <c r="G69" t="s">
         <v>117</v>
-      </c>
-      <c r="E69" t="s">
-        <v>107</v>
-      </c>
-      <c r="F69" t="s">
-        <v>108</v>
-      </c>
-      <c r="G69" t="s">
-        <v>118</v>
       </c>
       <c r="I69">
         <v>0.52</v>
@@ -8916,16 +8960,16 @@
         <v>398</v>
       </c>
       <c r="D70" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E70" t="s">
+        <v>106</v>
+      </c>
+      <c r="F70" t="s">
         <v>107</v>
       </c>
-      <c r="F70" t="s">
-        <v>108</v>
-      </c>
       <c r="G70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I70">
         <v>0.65</v>
@@ -9023,16 +9067,16 @@
         <v>62</v>
       </c>
       <c r="E71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F71" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G71" t="s">
+        <v>119</v>
+      </c>
+      <c r="H71" t="s">
         <v>120</v>
-      </c>
-      <c r="H71" t="s">
-        <v>121</v>
       </c>
       <c r="J71">
         <v>25</v>
@@ -9076,10 +9120,10 @@
         <v>38</v>
       </c>
       <c r="G72" t="s">
+        <v>121</v>
+      </c>
+      <c r="H72" t="s">
         <v>122</v>
-      </c>
-      <c r="H72" t="s">
-        <v>123</v>
       </c>
       <c r="J72">
         <v>400</v>
@@ -9126,10 +9170,10 @@
         <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J73">
         <v>333</v>
@@ -9176,10 +9220,10 @@
         <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J74">
         <v>336</v>
@@ -9226,10 +9270,10 @@
         <v>38</v>
       </c>
       <c r="G75" t="s">
+        <v>125</v>
+      </c>
+      <c r="H75" t="s">
         <v>126</v>
-      </c>
-      <c r="H75" t="s">
-        <v>127</v>
       </c>
       <c r="J75">
         <v>100.8</v>
@@ -9261,16 +9305,16 @@
         <v>405</v>
       </c>
       <c r="D76" t="s">
+        <v>127</v>
+      </c>
+      <c r="E76" t="s">
         <v>128</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
+        <v>107</v>
+      </c>
+      <c r="G76" t="s">
         <v>129</v>
-      </c>
-      <c r="F76" t="s">
-        <v>108</v>
-      </c>
-      <c r="G76" t="s">
-        <v>130</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -9368,16 +9412,16 @@
         <v>407</v>
       </c>
       <c r="D77" t="s">
+        <v>127</v>
+      </c>
+      <c r="E77" t="s">
         <v>128</v>
       </c>
-      <c r="E77" t="s">
-        <v>129</v>
-      </c>
       <c r="F77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G77" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -9475,16 +9519,16 @@
         <v>411</v>
       </c>
       <c r="D78" t="s">
+        <v>127</v>
+      </c>
+      <c r="E78" t="s">
         <v>128</v>
       </c>
-      <c r="E78" t="s">
-        <v>129</v>
-      </c>
       <c r="F78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G78" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -9582,16 +9626,16 @@
         <v>426</v>
       </c>
       <c r="D79" t="s">
+        <v>127</v>
+      </c>
+      <c r="E79" t="s">
         <v>128</v>
       </c>
-      <c r="E79" t="s">
-        <v>129</v>
-      </c>
       <c r="F79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G79" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -9686,16 +9730,16 @@
         <v>427</v>
       </c>
       <c r="D80" t="s">
+        <v>127</v>
+      </c>
+      <c r="E80" t="s">
         <v>128</v>
       </c>
-      <c r="E80" t="s">
-        <v>129</v>
-      </c>
       <c r="F80" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="G80" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -9793,16 +9837,16 @@
         <v>428</v>
       </c>
       <c r="D81" t="s">
+        <v>127</v>
+      </c>
+      <c r="E81" t="s">
         <v>128</v>
       </c>
-      <c r="E81" t="s">
-        <v>129</v>
-      </c>
       <c r="F81" t="s">
+        <v>175</v>
+      </c>
+      <c r="G81" t="s">
         <v>134</v>
-      </c>
-      <c r="G81" t="s">
-        <v>136</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -9900,16 +9944,16 @@
         <v>429</v>
       </c>
       <c r="D82" t="s">
+        <v>127</v>
+      </c>
+      <c r="E82" t="s">
         <v>128</v>
       </c>
-      <c r="E82" t="s">
-        <v>129</v>
-      </c>
       <c r="F82" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="G82" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -10007,16 +10051,16 @@
         <v>430</v>
       </c>
       <c r="D83" t="s">
+        <v>127</v>
+      </c>
+      <c r="E83" t="s">
         <v>128</v>
       </c>
-      <c r="E83" t="s">
-        <v>129</v>
-      </c>
       <c r="F83" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="G83" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -10114,16 +10158,16 @@
         <v>432</v>
       </c>
       <c r="D84" t="s">
+        <v>127</v>
+      </c>
+      <c r="E84" t="s">
         <v>128</v>
       </c>
-      <c r="E84" t="s">
-        <v>129</v>
-      </c>
       <c r="F84" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="G84" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -10221,16 +10265,16 @@
         <v>434</v>
       </c>
       <c r="D85" t="s">
+        <v>127</v>
+      </c>
+      <c r="E85" t="s">
         <v>128</v>
       </c>
-      <c r="E85" t="s">
-        <v>129</v>
-      </c>
       <c r="F85" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="G85" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -10328,16 +10372,16 @@
         <v>435</v>
       </c>
       <c r="D86" t="s">
+        <v>127</v>
+      </c>
+      <c r="E86" t="s">
         <v>128</v>
       </c>
-      <c r="E86" t="s">
-        <v>129</v>
-      </c>
       <c r="F86" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="G86" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -10432,16 +10476,16 @@
         <v>445</v>
       </c>
       <c r="D87" t="s">
+        <v>140</v>
+      </c>
+      <c r="E87" t="s">
+        <v>141</v>
+      </c>
+      <c r="F87" t="s">
         <v>142</v>
       </c>
-      <c r="E87" t="s">
+      <c r="G87" t="s">
         <v>143</v>
-      </c>
-      <c r="F87" t="s">
-        <v>144</v>
-      </c>
-      <c r="G87" t="s">
-        <v>145</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -10539,16 +10583,16 @@
         <v>461</v>
       </c>
       <c r="D88" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E88" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F88" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G88" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -10646,16 +10690,16 @@
         <v>463</v>
       </c>
       <c r="D89" t="s">
+        <v>144</v>
+      </c>
+      <c r="E89" t="s">
+        <v>141</v>
+      </c>
+      <c r="F89" t="s">
+        <v>142</v>
+      </c>
+      <c r="G89" t="s">
         <v>146</v>
-      </c>
-      <c r="E89" t="s">
-        <v>143</v>
-      </c>
-      <c r="F89" t="s">
-        <v>144</v>
-      </c>
-      <c r="G89" t="s">
-        <v>148</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -10753,16 +10797,16 @@
         <v>464</v>
       </c>
       <c r="D90" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E90" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F90" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G90" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I90">
         <v>0.93</v>
@@ -10860,16 +10904,16 @@
         <v>465</v>
       </c>
       <c r="D91" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E91" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F91" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G91" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -10967,16 +11011,16 @@
         <v>468</v>
       </c>
       <c r="D92" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F92" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G92" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -11074,7 +11118,7 @@
         <v>800</v>
       </c>
       <c r="D93" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E93" t="s">
         <v>37</v>
@@ -11083,7 +11127,7 @@
         <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -11151,7 +11195,7 @@
         <v>819</v>
       </c>
       <c r="D94" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E94" t="s">
         <v>55</v>
@@ -11160,7 +11204,7 @@
         <v>56</v>
       </c>
       <c r="G94" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -11258,7 +11302,7 @@
         <v>820</v>
       </c>
       <c r="D95" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E95" t="s">
         <v>55</v>
@@ -11267,7 +11311,7 @@
         <v>56</v>
       </c>
       <c r="G95" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -11365,7 +11409,7 @@
         <v>834</v>
       </c>
       <c r="D96" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E96" t="s">
         <v>37</v>
@@ -11374,7 +11418,7 @@
         <v>38</v>
       </c>
       <c r="G96" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -11442,16 +11486,16 @@
         <v>801</v>
       </c>
       <c r="D97" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E97" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F97" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="G97" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -11519,7 +11563,7 @@
         <v>807</v>
       </c>
       <c r="D98" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E98" t="s">
         <v>55</v>
@@ -11528,7 +11572,7 @@
         <v>56</v>
       </c>
       <c r="G98" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -11596,16 +11640,16 @@
         <v>822</v>
       </c>
       <c r="D99" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E99" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F99" t="s">
         <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -11673,7 +11717,7 @@
         <v>826</v>
       </c>
       <c r="D100" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E100" t="s">
         <v>55</v>
@@ -11682,7 +11726,7 @@
         <v>56</v>
       </c>
       <c r="G100" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -11780,7 +11824,7 @@
         <v>811</v>
       </c>
       <c r="D101" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E101" t="s">
         <v>55</v>
@@ -11789,7 +11833,7 @@
         <v>56</v>
       </c>
       <c r="G101" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -11887,16 +11931,16 @@
         <v>817</v>
       </c>
       <c r="D102" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E102" t="s">
+        <v>106</v>
+      </c>
+      <c r="F102" t="s">
         <v>107</v>
       </c>
-      <c r="F102" t="s">
-        <v>108</v>
-      </c>
       <c r="G102" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -11964,7 +12008,7 @@
         <v>808</v>
       </c>
       <c r="D103" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E103" t="s">
         <v>55</v>
@@ -11973,7 +12017,7 @@
         <v>56</v>
       </c>
       <c r="G103" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -12071,7 +12115,7 @@
         <v>823</v>
       </c>
       <c r="D104" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E104" t="s">
         <v>55</v>
@@ -12080,7 +12124,7 @@
         <v>56</v>
       </c>
       <c r="G104" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -12145,16 +12189,16 @@
         <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F105" t="s">
         <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H105" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J105">
         <v>389</v>
@@ -12216,16 +12260,16 @@
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F106" t="s">
         <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H106" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J106">
         <v>350.4</v>
@@ -12287,16 +12331,16 @@
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F107" t="s">
         <v>38</v>
       </c>
       <c r="G107" t="s">
+        <v>166</v>
+      </c>
+      <c r="H107" t="s">
         <v>167</v>
-      </c>
-      <c r="H107" t="s">
-        <v>168</v>
       </c>
       <c r="J107">
         <v>323</v>
@@ -12358,16 +12402,16 @@
         <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G108" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H108" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J108">
         <v>149</v>
@@ -12429,16 +12473,16 @@
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F109" t="s">
         <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H109" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J109">
         <v>175</v>
@@ -12500,13 +12544,13 @@
         <v>5</v>
       </c>
       <c r="E110" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G110" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J110">
         <v>478.7</v>
@@ -12568,13 +12612,13 @@
         <v>6</v>
       </c>
       <c r="E111" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F111" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G111" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J111">
         <v>46</v>
@@ -12636,16 +12680,16 @@
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F112" t="s">
         <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H112" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J112">
         <v>98.1</v>
@@ -12707,13 +12751,13 @@
         <v>5</v>
       </c>
       <c r="E113" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F113" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G113" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J113">
         <v>90.7</v>
@@ -12775,16 +12819,16 @@
         <v>4</v>
       </c>
       <c r="E114" t="s">
+        <v>180</v>
+      </c>
+      <c r="F114" t="s">
         <v>183</v>
       </c>
-      <c r="F114" t="s">
-        <v>63</v>
-      </c>
       <c r="G114" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H114" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J114">
         <v>30.6</v>
@@ -12839,6 +12883,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AJ114"/>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
